--- a/Results/Codes and classifications/IPCC_regions.xlsx
+++ b/Results/Codes and classifications/IPCC_regions.xlsx
@@ -92,9 +92,6 @@
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">Africa and Middle East</t>
-  </si>
-  <si>
     <t xml:space="preserve">Africa</t>
   </si>
   <si>
@@ -104,7 +101,7 @@
     <t xml:space="preserve">developing</t>
   </si>
   <si>
-    <t xml:space="preserve">AME</t>
+    <t xml:space="preserve">AFR</t>
   </si>
   <si>
     <t xml:space="preserve">ASM</t>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t xml:space="preserve">Middle East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA</t>
   </si>
   <si>
     <t xml:space="preserve">BGD</t>
@@ -1979,7 +1979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2084,36 +2084,36 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -2144,157 +2144,157 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
         <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
         <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
         <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
         <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -2328,71 +2328,71 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
       <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
         <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
       <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
         <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
       <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
         <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -2426,19 +2426,19 @@
         <v>73</v>
       </c>
       <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
         <v>43</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -2449,19 +2449,19 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
@@ -2495,19 +2495,19 @@
         <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
         <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -2521,7 +2521,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
         <v>83</v>
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -2587,19 +2587,19 @@
         <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -2610,19 +2610,19 @@
         <v>93</v>
       </c>
       <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
         <v>42</v>
       </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
         <v>43</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -2659,16 +2659,16 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
         <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -2679,19 +2679,19 @@
         <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
@@ -2702,19 +2702,19 @@
         <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
@@ -2728,16 +2728,16 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
         <v>104</v>
       </c>
       <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s">
         <v>29</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -2748,19 +2748,19 @@
         <v>106</v>
       </c>
       <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
         <v>42</v>
       </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
         <v>43</v>
-      </c>
-      <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -2774,13 +2774,13 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>109</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
@@ -2820,7 +2820,7 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
         <v>83</v>
@@ -2829,7 +2829,7 @@
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -2843,7 +2843,7 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
         <v>104</v>
@@ -2852,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -2866,16 +2866,16 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
         <v>83</v>
       </c>
       <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
         <v>29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="40">
@@ -2889,7 +2889,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
         <v>109</v>
@@ -2912,16 +2912,16 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
         <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -2955,19 +2955,19 @@
         <v>126</v>
       </c>
       <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
         <v>42</v>
       </c>
-      <c r="D43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
         <v>43</v>
-      </c>
-      <c r="F43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -2981,16 +2981,16 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -3004,16 +3004,16 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -3024,19 +3024,19 @@
         <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
@@ -3056,7 +3056,7 @@
         <v>135</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -3073,7 +3073,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
         <v>138</v>
@@ -3096,7 +3096,7 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
         <v>138</v>
@@ -3116,19 +3116,19 @@
         <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
@@ -3142,7 +3142,7 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
         <v>104</v>
@@ -3151,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -3165,16 +3165,16 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -3188,16 +3188,16 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
         <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -3211,13 +3211,13 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
         <v>33</v>
       </c>
-      <c r="E54" t="s">
-        <v>34</v>
-      </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
@@ -3231,19 +3231,19 @@
         <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
         <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56">
@@ -3257,16 +3257,16 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
         <v>83</v>
       </c>
       <c r="F56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s">
         <v>29</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -3300,19 +3300,19 @@
         <v>158</v>
       </c>
       <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
         <v>42</v>
       </c>
-      <c r="D58" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s">
         <v>43</v>
-      </c>
-      <c r="F58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="59">
@@ -3323,19 +3323,19 @@
         <v>160</v>
       </c>
       <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
         <v>42</v>
       </c>
-      <c r="D59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
         <v>43</v>
-      </c>
-      <c r="F59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="60">
@@ -3355,7 +3355,7 @@
         <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
@@ -3418,7 +3418,7 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63" t="s">
         <v>104</v>
@@ -3427,7 +3427,7 @@
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -3438,19 +3438,19 @@
         <v>170</v>
       </c>
       <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" t="s">
         <v>42</v>
       </c>
-      <c r="D64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s">
         <v>43</v>
-      </c>
-      <c r="F64" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="65">
@@ -3461,19 +3461,19 @@
         <v>172</v>
       </c>
       <c r="C65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
         <v>42</v>
       </c>
-      <c r="D65" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
         <v>43</v>
-      </c>
-      <c r="F65" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="66">
@@ -3484,19 +3484,19 @@
         <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
@@ -3510,16 +3510,16 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" t="s">
         <v>27</v>
       </c>
-      <c r="E67" t="s">
-        <v>28</v>
-      </c>
       <c r="F67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" t="s">
         <v>29</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="68">
@@ -3530,19 +3530,19 @@
         <v>178</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
         <v>80</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
@@ -3556,16 +3556,16 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" t="s">
         <v>29</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -3579,7 +3579,7 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70" t="s">
         <v>104</v>
@@ -3588,7 +3588,7 @@
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -3625,7 +3625,7 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E72" t="s">
         <v>104</v>
@@ -3634,7 +3634,7 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
@@ -3645,19 +3645,19 @@
         <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
@@ -3694,13 +3694,13 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" t="s">
         <v>33</v>
       </c>
-      <c r="E75" t="s">
-        <v>34</v>
-      </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G75" t="s">
         <v>13</v>
@@ -3760,19 +3760,19 @@
         <v>198</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
@@ -3786,13 +3786,13 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" t="s">
         <v>33</v>
       </c>
-      <c r="E79" t="s">
-        <v>34</v>
-      </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G79" t="s">
         <v>13</v>
@@ -3809,16 +3809,16 @@
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E80" t="s">
         <v>104</v>
       </c>
       <c r="F80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s">
         <v>29</v>
-      </c>
-      <c r="G80" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -3832,16 +3832,16 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
         <v>29</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="82">
@@ -3855,7 +3855,7 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s">
         <v>83</v>
@@ -3864,7 +3864,7 @@
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -3875,19 +3875,19 @@
         <v>208</v>
       </c>
       <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" t="s">
         <v>52</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
         <v>53</v>
-      </c>
-      <c r="E83" t="s">
-        <v>53</v>
-      </c>
-      <c r="F83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="84">
@@ -3924,16 +3924,16 @@
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E85" t="s">
         <v>83</v>
       </c>
       <c r="F85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s">
         <v>29</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -4013,19 +4013,19 @@
         <v>220</v>
       </c>
       <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" t="s">
         <v>42</v>
       </c>
-      <c r="D89" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" t="s">
         <v>43</v>
-      </c>
-      <c r="F89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="90">
@@ -4036,19 +4036,19 @@
         <v>222</v>
       </c>
       <c r="C90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" t="s">
         <v>42</v>
       </c>
-      <c r="D90" t="s">
-        <v>42</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s">
         <v>43</v>
-      </c>
-      <c r="F90" t="s">
-        <v>29</v>
-      </c>
-      <c r="G90" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="91">
@@ -4062,13 +4062,13 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" t="s">
         <v>33</v>
       </c>
-      <c r="E91" t="s">
-        <v>34</v>
-      </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G91" t="s">
         <v>13</v>
@@ -4082,19 +4082,19 @@
         <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E92" t="s">
         <v>80</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93">
@@ -4131,7 +4131,7 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
         <v>83</v>
@@ -4140,7 +4140,7 @@
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -4154,7 +4154,7 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E95" t="s">
         <v>83</v>
@@ -4163,7 +4163,7 @@
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
@@ -4174,19 +4174,19 @@
         <v>234</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97">
@@ -4197,19 +4197,19 @@
         <v>236</v>
       </c>
       <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" t="s">
         <v>42</v>
-      </c>
-      <c r="D97" t="s">
-        <v>42</v>
-      </c>
-      <c r="E97" t="s">
-        <v>43</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98">
@@ -4223,7 +4223,7 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E98" t="s">
         <v>138</v>
@@ -4266,19 +4266,19 @@
         <v>242</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
         <v>80</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101">
@@ -4298,7 +4298,7 @@
         <v>135</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
@@ -4367,7 +4367,7 @@
         <v>251</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G104" t="s">
         <v>13</v>
@@ -4384,13 +4384,13 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E105" t="s">
         <v>109</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G105" t="s">
         <v>13</v>
@@ -4404,19 +4404,19 @@
         <v>255</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D106" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" t="s">
+        <v>68</v>
+      </c>
+      <c r="F106" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" t="s">
         <v>69</v>
-      </c>
-      <c r="E106" t="s">
-        <v>69</v>
-      </c>
-      <c r="F106" t="s">
-        <v>29</v>
-      </c>
-      <c r="G106" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="107">
@@ -4427,19 +4427,19 @@
         <v>257</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D107" t="s">
+        <v>68</v>
+      </c>
+      <c r="E107" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" t="s">
         <v>69</v>
-      </c>
-      <c r="E107" t="s">
-        <v>69</v>
-      </c>
-      <c r="F107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="108">
@@ -4496,19 +4496,19 @@
         <v>263</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111">
@@ -4542,19 +4542,19 @@
         <v>267</v>
       </c>
       <c r="C112" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" t="s">
         <v>42</v>
       </c>
-      <c r="D112" t="s">
-        <v>42</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" t="s">
         <v>43</v>
-      </c>
-      <c r="F112" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="113">
@@ -4568,7 +4568,7 @@
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E113" t="s">
         <v>138</v>
@@ -4611,19 +4611,19 @@
         <v>273</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D115" t="s">
+        <v>68</v>
+      </c>
+      <c r="E115" t="s">
+        <v>68</v>
+      </c>
+      <c r="F115" t="s">
+        <v>28</v>
+      </c>
+      <c r="G115" t="s">
         <v>69</v>
-      </c>
-      <c r="E115" t="s">
-        <v>69</v>
-      </c>
-      <c r="F115" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="116">
@@ -4634,19 +4634,19 @@
         <v>275</v>
       </c>
       <c r="C116" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116" t="s">
         <v>52</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
+        <v>52</v>
+      </c>
+      <c r="F116" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" t="s">
         <v>53</v>
-      </c>
-      <c r="E116" t="s">
-        <v>53</v>
-      </c>
-      <c r="F116" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="117">
@@ -4660,16 +4660,16 @@
         <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E117" t="s">
         <v>104</v>
       </c>
       <c r="F117" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" t="s">
         <v>29</v>
-      </c>
-      <c r="G117" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="118">
@@ -4683,10 +4683,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" t="s">
         <v>33</v>
-      </c>
-      <c r="E118" t="s">
-        <v>34</v>
       </c>
       <c r="F118" t="s">
         <v>12</v>
@@ -4712,7 +4712,7 @@
         <v>135</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G119" t="s">
         <v>13</v>
@@ -4735,7 +4735,7 @@
         <v>135</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G120" t="s">
         <v>13</v>
@@ -4749,19 +4749,19 @@
         <v>285</v>
       </c>
       <c r="C121" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D121" t="s">
+        <v>68</v>
+      </c>
+      <c r="E121" t="s">
+        <v>68</v>
+      </c>
+      <c r="F121" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" t="s">
         <v>69</v>
-      </c>
-      <c r="E121" t="s">
-        <v>69</v>
-      </c>
-      <c r="F121" t="s">
-        <v>29</v>
-      </c>
-      <c r="G121" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="122">
@@ -4772,19 +4772,19 @@
         <v>287</v>
       </c>
       <c r="C122" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122" t="s">
         <v>52</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
+        <v>52</v>
+      </c>
+      <c r="F122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" t="s">
         <v>53</v>
-      </c>
-      <c r="E122" t="s">
-        <v>53</v>
-      </c>
-      <c r="F122" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="123">
@@ -4798,7 +4798,7 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E123" t="s">
         <v>109</v>
@@ -4841,19 +4841,19 @@
         <v>293</v>
       </c>
       <c r="C125" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D125" t="s">
+        <v>68</v>
+      </c>
+      <c r="E125" t="s">
+        <v>68</v>
+      </c>
+      <c r="F125" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s">
         <v>69</v>
-      </c>
-      <c r="E125" t="s">
-        <v>69</v>
-      </c>
-      <c r="F125" t="s">
-        <v>29</v>
-      </c>
-      <c r="G125" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="126">
@@ -4867,16 +4867,16 @@
         <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
         <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
@@ -4890,7 +4890,7 @@
         <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E127" t="s">
         <v>83</v>
@@ -4899,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
@@ -4913,16 +4913,16 @@
         <v>26</v>
       </c>
       <c r="D128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" t="s">
         <v>27</v>
       </c>
-      <c r="E128" t="s">
-        <v>28</v>
-      </c>
       <c r="F128" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s">
         <v>29</v>
-      </c>
-      <c r="G128" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="129">
@@ -5011,7 +5011,7 @@
         <v>135</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G132" t="s">
         <v>13</v>
@@ -5025,19 +5025,19 @@
         <v>309</v>
       </c>
       <c r="C133" t="s">
+        <v>51</v>
+      </c>
+      <c r="D133" t="s">
         <v>52</v>
       </c>
-      <c r="D133" t="s">
-        <v>53</v>
-      </c>
       <c r="E133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
       </c>
       <c r="G133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134">
@@ -5051,7 +5051,7 @@
         <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E134" t="s">
         <v>104</v>
@@ -5060,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
@@ -5074,7 +5074,7 @@
         <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E135" t="s">
         <v>104</v>
@@ -5083,7 +5083,7 @@
         <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
@@ -5097,13 +5097,13 @@
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E136" t="s">
         <v>109</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G136" t="s">
         <v>13</v>
@@ -5126,7 +5126,7 @@
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G137" t="s">
         <v>13</v>
@@ -5143,7 +5143,7 @@
         <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E138" t="s">
         <v>83</v>
@@ -5152,7 +5152,7 @@
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
@@ -5189,13 +5189,13 @@
         <v>9</v>
       </c>
       <c r="D140" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" t="s">
         <v>33</v>
       </c>
-      <c r="E140" t="s">
-        <v>34</v>
-      </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G140" t="s">
         <v>13</v>
@@ -5209,19 +5209,19 @@
         <v>325</v>
       </c>
       <c r="C141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" t="s">
         <v>42</v>
       </c>
-      <c r="D141" t="s">
-        <v>42</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
+        <v>28</v>
+      </c>
+      <c r="G141" t="s">
         <v>43</v>
-      </c>
-      <c r="F141" t="s">
-        <v>29</v>
-      </c>
-      <c r="G141" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="142">
@@ -5235,7 +5235,7 @@
         <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E142" t="s">
         <v>83</v>
@@ -5244,7 +5244,7 @@
         <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
@@ -5258,16 +5258,16 @@
         <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E143" t="s">
         <v>104</v>
       </c>
       <c r="F143" t="s">
+        <v>28</v>
+      </c>
+      <c r="G143" t="s">
         <v>29</v>
-      </c>
-      <c r="G143" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="144">
@@ -5281,16 +5281,16 @@
         <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E144" t="s">
         <v>104</v>
       </c>
       <c r="F144" t="s">
+        <v>28</v>
+      </c>
+      <c r="G144" t="s">
         <v>29</v>
-      </c>
-      <c r="G144" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="145">
@@ -5301,19 +5301,19 @@
         <v>333</v>
       </c>
       <c r="C145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E145" t="s">
         <v>80</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146">
@@ -5327,13 +5327,13 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
+        <v>32</v>
+      </c>
+      <c r="E146" t="s">
         <v>33</v>
       </c>
-      <c r="E146" t="s">
-        <v>34</v>
-      </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G146" t="s">
         <v>13</v>
@@ -5347,19 +5347,19 @@
         <v>337</v>
       </c>
       <c r="C147" t="s">
+        <v>51</v>
+      </c>
+      <c r="D147" t="s">
         <v>52</v>
       </c>
-      <c r="D147" t="s">
-        <v>53</v>
-      </c>
       <c r="E147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F147" t="s">
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148">
@@ -5402,7 +5402,7 @@
         <v>135</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G149" t="s">
         <v>13</v>
@@ -5439,19 +5439,19 @@
         <v>345</v>
       </c>
       <c r="C151" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151" t="s">
         <v>42</v>
       </c>
-      <c r="D151" t="s">
-        <v>42</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
+        <v>28</v>
+      </c>
+      <c r="G151" t="s">
         <v>43</v>
-      </c>
-      <c r="F151" t="s">
-        <v>29</v>
-      </c>
-      <c r="G151" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="152">
@@ -5465,16 +5465,16 @@
         <v>26</v>
       </c>
       <c r="D152" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" t="s">
         <v>27</v>
       </c>
-      <c r="E152" t="s">
-        <v>28</v>
-      </c>
       <c r="F152" t="s">
+        <v>28</v>
+      </c>
+      <c r="G152" t="s">
         <v>29</v>
-      </c>
-      <c r="G152" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="153">
@@ -5488,7 +5488,7 @@
         <v>26</v>
       </c>
       <c r="D153" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E153" t="s">
         <v>104</v>
@@ -5497,7 +5497,7 @@
         <v>12</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154">
@@ -5511,7 +5511,7 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E154" t="s">
         <v>109</v>
@@ -5534,16 +5534,16 @@
         <v>26</v>
       </c>
       <c r="D155" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
+        <v>28</v>
+      </c>
+      <c r="G155" t="s">
         <v>29</v>
-      </c>
-      <c r="G155" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="156">
@@ -5557,13 +5557,13 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" t="s">
         <v>33</v>
       </c>
-      <c r="E156" t="s">
-        <v>34</v>
-      </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G156" t="s">
         <v>13</v>
@@ -5626,13 +5626,13 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
+        <v>32</v>
+      </c>
+      <c r="E159" t="s">
         <v>33</v>
       </c>
-      <c r="E159" t="s">
-        <v>34</v>
-      </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G159" t="s">
         <v>13</v>
@@ -5649,10 +5649,10 @@
         <v>16</v>
       </c>
       <c r="D160" t="s">
+        <v>58</v>
+      </c>
+      <c r="E160" t="s">
         <v>59</v>
-      </c>
-      <c r="E160" t="s">
-        <v>60</v>
       </c>
       <c r="F160" t="s">
         <v>19</v>
@@ -5669,19 +5669,19 @@
         <v>365</v>
       </c>
       <c r="C161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E161" t="s">
         <v>80</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162">
@@ -5695,7 +5695,7 @@
         <v>26</v>
       </c>
       <c r="D162" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E162" t="s">
         <v>83</v>
@@ -5704,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
@@ -5718,16 +5718,16 @@
         <v>26</v>
       </c>
       <c r="D163" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E163" t="s">
         <v>83</v>
       </c>
       <c r="F163" t="s">
+        <v>28</v>
+      </c>
+      <c r="G163" t="s">
         <v>29</v>
-      </c>
-      <c r="G163" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="164">
@@ -5741,13 +5741,13 @@
         <v>9</v>
       </c>
       <c r="D164" t="s">
+        <v>32</v>
+      </c>
+      <c r="E164" t="s">
         <v>33</v>
       </c>
-      <c r="E164" t="s">
-        <v>34</v>
-      </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G164" t="s">
         <v>13</v>
@@ -5764,7 +5764,7 @@
         <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E165" t="s">
         <v>138</v>
@@ -5787,13 +5787,13 @@
         <v>9</v>
       </c>
       <c r="D166" t="s">
+        <v>32</v>
+      </c>
+      <c r="E166" t="s">
         <v>33</v>
       </c>
-      <c r="E166" t="s">
-        <v>34</v>
-      </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G166" t="s">
         <v>13</v>
@@ -5830,19 +5830,19 @@
         <v>379</v>
       </c>
       <c r="C168" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D168" t="s">
+        <v>68</v>
+      </c>
+      <c r="E168" t="s">
+        <v>68</v>
+      </c>
+      <c r="F168" t="s">
+        <v>28</v>
+      </c>
+      <c r="G168" t="s">
         <v>69</v>
-      </c>
-      <c r="E168" t="s">
-        <v>69</v>
-      </c>
-      <c r="F168" t="s">
-        <v>29</v>
-      </c>
-      <c r="G168" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="169">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G169" t="s">
         <v>13</v>
@@ -5879,13 +5879,13 @@
         <v>9</v>
       </c>
       <c r="D170" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" t="s">
         <v>33</v>
       </c>
-      <c r="E170" t="s">
-        <v>34</v>
-      </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G170" t="s">
         <v>13</v>
@@ -5899,19 +5899,19 @@
         <v>385</v>
       </c>
       <c r="C171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E171" t="s">
         <v>80</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172">
@@ -5925,13 +5925,13 @@
         <v>9</v>
       </c>
       <c r="D172" t="s">
+        <v>32</v>
+      </c>
+      <c r="E172" t="s">
         <v>33</v>
       </c>
-      <c r="E172" t="s">
-        <v>34</v>
-      </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G172" t="s">
         <v>13</v>
@@ -5945,19 +5945,19 @@
         <v>389</v>
       </c>
       <c r="C173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174">
@@ -5968,19 +5968,19 @@
         <v>391</v>
       </c>
       <c r="C174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="175">
@@ -5994,13 +5994,13 @@
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E175" t="s">
         <v>109</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G175" t="s">
         <v>13</v>
@@ -6017,13 +6017,13 @@
         <v>9</v>
       </c>
       <c r="D176" t="s">
+        <v>32</v>
+      </c>
+      <c r="E176" t="s">
         <v>33</v>
       </c>
-      <c r="E176" t="s">
-        <v>34</v>
-      </c>
       <c r="F176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G176" t="s">
         <v>13</v>
@@ -6083,19 +6083,19 @@
         <v>401</v>
       </c>
       <c r="C179" t="s">
+        <v>41</v>
+      </c>
+      <c r="D179" t="s">
+        <v>41</v>
+      </c>
+      <c r="E179" t="s">
         <v>42</v>
       </c>
-      <c r="D179" t="s">
-        <v>42</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
+        <v>28</v>
+      </c>
+      <c r="G179" t="s">
         <v>43</v>
-      </c>
-      <c r="F179" t="s">
-        <v>29</v>
-      </c>
-      <c r="G179" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="180">
@@ -6106,19 +6106,19 @@
         <v>403</v>
       </c>
       <c r="C180" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D180" t="s">
+        <v>68</v>
+      </c>
+      <c r="E180" t="s">
+        <v>68</v>
+      </c>
+      <c r="F180" t="s">
+        <v>28</v>
+      </c>
+      <c r="G180" t="s">
         <v>69</v>
-      </c>
-      <c r="E180" t="s">
-        <v>69</v>
-      </c>
-      <c r="F180" t="s">
-        <v>29</v>
-      </c>
-      <c r="G180" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="181">
@@ -6132,16 +6132,16 @@
         <v>26</v>
       </c>
       <c r="D181" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E181" t="s">
         <v>104</v>
       </c>
       <c r="F181" t="s">
+        <v>28</v>
+      </c>
+      <c r="G181" t="s">
         <v>29</v>
-      </c>
-      <c r="G181" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="182">
@@ -6175,19 +6175,19 @@
         <v>409</v>
       </c>
       <c r="C183" t="s">
+        <v>51</v>
+      </c>
+      <c r="D183" t="s">
         <v>52</v>
       </c>
-      <c r="D183" t="s">
-        <v>53</v>
-      </c>
       <c r="E183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F183" t="s">
         <v>19</v>
       </c>
       <c r="G183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184">
@@ -6201,7 +6201,7 @@
         <v>26</v>
       </c>
       <c r="D184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E184" t="s">
         <v>104</v>
@@ -6210,7 +6210,7 @@
         <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185">
@@ -6221,19 +6221,19 @@
         <v>413</v>
       </c>
       <c r="C185" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" t="s">
+        <v>41</v>
+      </c>
+      <c r="E185" t="s">
         <v>42</v>
       </c>
-      <c r="D185" t="s">
-        <v>42</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
+        <v>28</v>
+      </c>
+      <c r="G185" t="s">
         <v>43</v>
-      </c>
-      <c r="F185" t="s">
-        <v>29</v>
-      </c>
-      <c r="G185" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="186">
@@ -6247,16 +6247,16 @@
         <v>26</v>
       </c>
       <c r="D186" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E186" t="s">
         <v>83</v>
       </c>
       <c r="F186" t="s">
+        <v>28</v>
+      </c>
+      <c r="G186" t="s">
         <v>29</v>
-      </c>
-      <c r="G186" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="187">
@@ -6293,13 +6293,13 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
+        <v>32</v>
+      </c>
+      <c r="E188" t="s">
         <v>33</v>
       </c>
-      <c r="E188" t="s">
-        <v>34</v>
-      </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G188" t="s">
         <v>13</v>
@@ -6339,16 +6339,16 @@
         <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F190" t="s">
         <v>12</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191">
@@ -6359,19 +6359,19 @@
         <v>425</v>
       </c>
       <c r="C191" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D191" t="s">
+        <v>68</v>
+      </c>
+      <c r="E191" t="s">
+        <v>68</v>
+      </c>
+      <c r="F191" t="s">
+        <v>28</v>
+      </c>
+      <c r="G191" t="s">
         <v>69</v>
-      </c>
-      <c r="E191" t="s">
-        <v>69</v>
-      </c>
-      <c r="F191" t="s">
-        <v>29</v>
-      </c>
-      <c r="G191" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="192">
@@ -6385,7 +6385,7 @@
         <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E192" t="s">
         <v>83</v>
@@ -6394,7 +6394,7 @@
         <v>12</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193">
@@ -6431,16 +6431,16 @@
         <v>26</v>
       </c>
       <c r="D194" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E194" t="s">
         <v>104</v>
       </c>
       <c r="F194" t="s">
+        <v>28</v>
+      </c>
+      <c r="G194" t="s">
         <v>29</v>
-      </c>
-      <c r="G194" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="195">
@@ -6454,7 +6454,7 @@
         <v>26</v>
       </c>
       <c r="D195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E195" t="s">
         <v>83</v>
@@ -6463,7 +6463,7 @@
         <v>12</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196">
@@ -6477,13 +6477,13 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E196" t="s">
         <v>109</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G196" t="s">
         <v>13</v>
@@ -6497,19 +6497,19 @@
         <v>437</v>
       </c>
       <c r="C197" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" t="s">
+        <v>41</v>
+      </c>
+      <c r="E197" t="s">
         <v>42</v>
       </c>
-      <c r="D197" t="s">
-        <v>42</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
+        <v>28</v>
+      </c>
+      <c r="G197" t="s">
         <v>43</v>
-      </c>
-      <c r="F197" t="s">
-        <v>29</v>
-      </c>
-      <c r="G197" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="198">
@@ -6569,10 +6569,10 @@
         <v>9</v>
       </c>
       <c r="D200" t="s">
+        <v>32</v>
+      </c>
+      <c r="E200" t="s">
         <v>33</v>
-      </c>
-      <c r="E200" t="s">
-        <v>34</v>
       </c>
       <c r="F200" t="s">
         <v>12</v>
@@ -6592,7 +6592,7 @@
         <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E201" t="s">
         <v>104</v>
@@ -6601,7 +6601,7 @@
         <v>12</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202">
@@ -6615,16 +6615,16 @@
         <v>26</v>
       </c>
       <c r="D202" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F202" t="s">
+        <v>28</v>
+      </c>
+      <c r="G202" t="s">
         <v>29</v>
-      </c>
-      <c r="G202" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="203">
@@ -6635,19 +6635,19 @@
         <v>449</v>
       </c>
       <c r="C203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="204">
@@ -6661,7 +6661,7 @@
         <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E204" t="s">
         <v>104</v>
@@ -6670,7 +6670,7 @@
         <v>12</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205">
@@ -6713,7 +6713,7 @@
         <v>251</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G206" t="s">
         <v>13</v>
@@ -6727,19 +6727,19 @@
         <v>457</v>
       </c>
       <c r="C207" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" t="s">
+        <v>41</v>
+      </c>
+      <c r="E207" t="s">
         <v>42</v>
       </c>
-      <c r="D207" t="s">
-        <v>42</v>
-      </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
+        <v>28</v>
+      </c>
+      <c r="G207" t="s">
         <v>43</v>
-      </c>
-      <c r="F207" t="s">
-        <v>29</v>
-      </c>
-      <c r="G207" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="208">
@@ -6750,19 +6750,19 @@
         <v>459</v>
       </c>
       <c r="C208" t="s">
+        <v>41</v>
+      </c>
+      <c r="D208" t="s">
+        <v>41</v>
+      </c>
+      <c r="E208" t="s">
         <v>42</v>
       </c>
-      <c r="D208" t="s">
-        <v>42</v>
-      </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
+        <v>28</v>
+      </c>
+      <c r="G208" t="s">
         <v>43</v>
-      </c>
-      <c r="F208" t="s">
-        <v>29</v>
-      </c>
-      <c r="G208" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="209">
@@ -6773,19 +6773,19 @@
         <v>461</v>
       </c>
       <c r="C209" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" t="s">
+        <v>41</v>
+      </c>
+      <c r="E209" t="s">
         <v>42</v>
       </c>
-      <c r="D209" t="s">
-        <v>42</v>
-      </c>
-      <c r="E209" t="s">
+      <c r="F209" t="s">
+        <v>28</v>
+      </c>
+      <c r="G209" t="s">
         <v>43</v>
-      </c>
-      <c r="F209" t="s">
-        <v>29</v>
-      </c>
-      <c r="G209" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="210">
@@ -6796,19 +6796,19 @@
         <v>463</v>
       </c>
       <c r="C210" t="s">
+        <v>41</v>
+      </c>
+      <c r="D210" t="s">
+        <v>41</v>
+      </c>
+      <c r="E210" t="s">
         <v>42</v>
       </c>
-      <c r="D210" t="s">
-        <v>42</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="F210" t="s">
+        <v>28</v>
+      </c>
+      <c r="G210" t="s">
         <v>43</v>
-      </c>
-      <c r="F210" t="s">
-        <v>29</v>
-      </c>
-      <c r="G210" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="211">
@@ -6822,16 +6822,16 @@
         <v>26</v>
       </c>
       <c r="D211" t="s">
+        <v>26</v>
+      </c>
+      <c r="E211" t="s">
         <v>27</v>
-      </c>
-      <c r="E211" t="s">
-        <v>28</v>
       </c>
       <c r="F211" t="s">
         <v>12</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212">
@@ -6842,19 +6842,19 @@
         <v>467</v>
       </c>
       <c r="C212" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D212" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E212" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G212" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="213">
@@ -6891,16 +6891,16 @@
         <v>26</v>
       </c>
       <c r="D214" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E214" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F214" t="s">
+        <v>28</v>
+      </c>
+      <c r="G214" t="s">
         <v>29</v>
-      </c>
-      <c r="G214" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="215">
@@ -6957,19 +6957,19 @@
         <v>477</v>
       </c>
       <c r="C217" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D217" t="s">
+        <v>68</v>
+      </c>
+      <c r="E217" t="s">
+        <v>68</v>
+      </c>
+      <c r="F217" t="s">
+        <v>28</v>
+      </c>
+      <c r="G217" t="s">
         <v>69</v>
-      </c>
-      <c r="E217" t="s">
-        <v>69</v>
-      </c>
-      <c r="F217" t="s">
-        <v>29</v>
-      </c>
-      <c r="G217" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="218">
@@ -6989,7 +6989,7 @@
         <v>135</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G218" t="s">
         <v>13</v>
@@ -7003,19 +7003,19 @@
         <v>481</v>
       </c>
       <c r="C219" t="s">
+        <v>51</v>
+      </c>
+      <c r="D219" t="s">
         <v>52</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
+        <v>52</v>
+      </c>
+      <c r="F219" t="s">
+        <v>28</v>
+      </c>
+      <c r="G219" t="s">
         <v>53</v>
-      </c>
-      <c r="E219" t="s">
-        <v>53</v>
-      </c>
-      <c r="F219" t="s">
-        <v>29</v>
-      </c>
-      <c r="G219" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="220">
@@ -7029,7 +7029,7 @@
         <v>26</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E220" t="s">
         <v>104</v>
@@ -7038,7 +7038,7 @@
         <v>12</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221">
@@ -7052,13 +7052,13 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E221" t="s">
         <v>109</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G221" t="s">
         <v>13</v>
@@ -7075,7 +7075,7 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E222" t="s">
         <v>109</v>
@@ -7098,7 +7098,7 @@
         <v>26</v>
       </c>
       <c r="D223" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E223" t="s">
         <v>83</v>
@@ -7107,7 +7107,7 @@
         <v>12</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224">
@@ -7121,13 +7121,13 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
+        <v>32</v>
+      </c>
+      <c r="E224" t="s">
         <v>33</v>
       </c>
-      <c r="E224" t="s">
-        <v>34</v>
-      </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G224" t="s">
         <v>13</v>
@@ -7144,13 +7144,13 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
+        <v>32</v>
+      </c>
+      <c r="E225" t="s">
         <v>33</v>
       </c>
-      <c r="E225" t="s">
-        <v>34</v>
-      </c>
       <c r="F225" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G225" t="s">
         <v>13</v>
@@ -7164,19 +7164,19 @@
         <v>495</v>
       </c>
       <c r="C226" t="s">
+        <v>41</v>
+      </c>
+      <c r="D226" t="s">
+        <v>41</v>
+      </c>
+      <c r="E226" t="s">
         <v>42</v>
       </c>
-      <c r="D226" t="s">
-        <v>42</v>
-      </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
+        <v>28</v>
+      </c>
+      <c r="G226" t="s">
         <v>43</v>
-      </c>
-      <c r="F226" t="s">
-        <v>29</v>
-      </c>
-      <c r="G226" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="227">
@@ -7190,16 +7190,16 @@
         <v>26</v>
       </c>
       <c r="D227" t="s">
+        <v>26</v>
+      </c>
+      <c r="E227" t="s">
         <v>27</v>
       </c>
-      <c r="E227" t="s">
-        <v>28</v>
-      </c>
       <c r="F227" t="s">
+        <v>28</v>
+      </c>
+      <c r="G227" t="s">
         <v>29</v>
-      </c>
-      <c r="G227" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="228">
@@ -7219,7 +7219,7 @@
         <v>23</v>
       </c>
       <c r="F228" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G228" t="s">
         <v>20</v>
@@ -7233,19 +7233,19 @@
         <v>501</v>
       </c>
       <c r="C229" t="s">
+        <v>51</v>
+      </c>
+      <c r="D229" t="s">
         <v>52</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
+        <v>52</v>
+      </c>
+      <c r="F229" t="s">
+        <v>28</v>
+      </c>
+      <c r="G229" t="s">
         <v>53</v>
-      </c>
-      <c r="E229" t="s">
-        <v>53</v>
-      </c>
-      <c r="F229" t="s">
-        <v>29</v>
-      </c>
-      <c r="G229" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="230">
@@ -7256,19 +7256,19 @@
         <v>503</v>
       </c>
       <c r="C230" t="s">
+        <v>41</v>
+      </c>
+      <c r="D230" t="s">
+        <v>41</v>
+      </c>
+      <c r="E230" t="s">
         <v>42</v>
       </c>
-      <c r="D230" t="s">
-        <v>42</v>
-      </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
+        <v>28</v>
+      </c>
+      <c r="G230" t="s">
         <v>43</v>
-      </c>
-      <c r="F230" t="s">
-        <v>29</v>
-      </c>
-      <c r="G230" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="231">
@@ -7282,10 +7282,10 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
+        <v>32</v>
+      </c>
+      <c r="E231" t="s">
         <v>33</v>
-      </c>
-      <c r="E231" t="s">
-        <v>34</v>
       </c>
       <c r="F231" t="s">
         <v>12</v>
@@ -7305,7 +7305,7 @@
         <v>26</v>
       </c>
       <c r="D232" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E232" t="s">
         <v>104</v>
@@ -7314,7 +7314,7 @@
         <v>12</v>
       </c>
       <c r="G232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="233">
@@ -7348,19 +7348,19 @@
         <v>511</v>
       </c>
       <c r="C234" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D234" t="s">
+        <v>68</v>
+      </c>
+      <c r="E234" t="s">
+        <v>68</v>
+      </c>
+      <c r="F234" t="s">
+        <v>28</v>
+      </c>
+      <c r="G234" t="s">
         <v>69</v>
-      </c>
-      <c r="E234" t="s">
-        <v>69</v>
-      </c>
-      <c r="F234" t="s">
-        <v>29</v>
-      </c>
-      <c r="G234" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="235">
@@ -7420,13 +7420,13 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
+        <v>32</v>
+      </c>
+      <c r="E237" t="s">
         <v>33</v>
       </c>
-      <c r="E237" t="s">
-        <v>34</v>
-      </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G237" t="s">
         <v>13</v>
@@ -7440,19 +7440,19 @@
         <v>519</v>
       </c>
       <c r="C238" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D238" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E238" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G238" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="239">
@@ -7463,19 +7463,19 @@
         <v>521</v>
       </c>
       <c r="C239" t="s">
+        <v>51</v>
+      </c>
+      <c r="D239" t="s">
         <v>52</v>
       </c>
-      <c r="D239" t="s">
+      <c r="E239" t="s">
+        <v>52</v>
+      </c>
+      <c r="F239" t="s">
+        <v>28</v>
+      </c>
+      <c r="G239" t="s">
         <v>53</v>
-      </c>
-      <c r="E239" t="s">
-        <v>53</v>
-      </c>
-      <c r="F239" t="s">
-        <v>29</v>
-      </c>
-      <c r="G239" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="240">
@@ -7489,10 +7489,10 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
+        <v>32</v>
+      </c>
+      <c r="E240" t="s">
         <v>33</v>
-      </c>
-      <c r="E240" t="s">
-        <v>34</v>
       </c>
       <c r="F240" t="s">
         <v>12</v>
@@ -7509,19 +7509,19 @@
         <v>525</v>
       </c>
       <c r="C241" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D241" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E241" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F241" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G241" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242">
@@ -7535,13 +7535,13 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E242" t="s">
         <v>109</v>
       </c>
       <c r="F242" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G242" t="s">
         <v>13</v>
@@ -7555,19 +7555,19 @@
         <v>529</v>
       </c>
       <c r="C243" t="s">
+        <v>41</v>
+      </c>
+      <c r="D243" t="s">
+        <v>41</v>
+      </c>
+      <c r="E243" t="s">
         <v>42</v>
       </c>
-      <c r="D243" t="s">
-        <v>42</v>
-      </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
+        <v>28</v>
+      </c>
+      <c r="G243" t="s">
         <v>43</v>
-      </c>
-      <c r="F243" t="s">
-        <v>29</v>
-      </c>
-      <c r="G243" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="244">
@@ -7581,13 +7581,13 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
+        <v>32</v>
+      </c>
+      <c r="E244" t="s">
         <v>33</v>
       </c>
-      <c r="E244" t="s">
-        <v>34</v>
-      </c>
       <c r="F244" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G244" t="s">
         <v>13</v>
@@ -7601,19 +7601,19 @@
         <v>533</v>
       </c>
       <c r="C245" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D245" t="s">
+        <v>68</v>
+      </c>
+      <c r="E245" t="s">
+        <v>68</v>
+      </c>
+      <c r="F245" t="s">
+        <v>28</v>
+      </c>
+      <c r="G245" t="s">
         <v>69</v>
-      </c>
-      <c r="E245" t="s">
-        <v>69</v>
-      </c>
-      <c r="F245" t="s">
-        <v>29</v>
-      </c>
-      <c r="G245" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="246">
@@ -7627,16 +7627,16 @@
         <v>26</v>
       </c>
       <c r="D246" t="s">
+        <v>26</v>
+      </c>
+      <c r="E246" t="s">
         <v>27</v>
       </c>
-      <c r="E246" t="s">
-        <v>28</v>
-      </c>
       <c r="F246" t="s">
+        <v>28</v>
+      </c>
+      <c r="G246" t="s">
         <v>29</v>
-      </c>
-      <c r="G246" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="247">
@@ -7647,19 +7647,19 @@
         <v>537</v>
       </c>
       <c r="C247" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D247" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E247" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F247" t="s">
         <v>12</v>
       </c>
       <c r="G247" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="248">
@@ -7673,7 +7673,7 @@
         <v>26</v>
       </c>
       <c r="D248" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E248" t="s">
         <v>104</v>
@@ -7682,7 +7682,7 @@
         <v>12</v>
       </c>
       <c r="G248" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="249">
@@ -7696,16 +7696,16 @@
         <v>26</v>
       </c>
       <c r="D249" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E249" t="s">
         <v>104</v>
       </c>
       <c r="F249" t="s">
+        <v>28</v>
+      </c>
+      <c r="G249" t="s">
         <v>29</v>
-      </c>
-      <c r="G249" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="250">
@@ -7716,19 +7716,19 @@
         <v>543</v>
       </c>
       <c r="C250" t="s">
+        <v>41</v>
+      </c>
+      <c r="D250" t="s">
+        <v>41</v>
+      </c>
+      <c r="E250" t="s">
         <v>42</v>
       </c>
-      <c r="D250" t="s">
-        <v>42</v>
-      </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
+        <v>28</v>
+      </c>
+      <c r="G250" t="s">
         <v>43</v>
-      </c>
-      <c r="F250" t="s">
-        <v>29</v>
-      </c>
-      <c r="G250" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="251">
@@ -7739,19 +7739,19 @@
         <v>545</v>
       </c>
       <c r="C251" t="s">
+        <v>51</v>
+      </c>
+      <c r="D251" t="s">
         <v>52</v>
       </c>
-      <c r="D251" t="s">
-        <v>53</v>
-      </c>
       <c r="E251" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F251" t="s">
         <v>19</v>
       </c>
       <c r="G251" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Codes and classifications/IPCC_regions.xlsx
+++ b/Results/Codes and classifications/IPCC_regions.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">region_ar6_5</t>
+    <t xml:space="preserve">region_ar6_6</t>
   </si>
   <si>
     <t xml:space="preserve">region_ar6_10</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">region_ar6_dev</t>
   </si>
   <si>
-    <t xml:space="preserve">region_ar6_5_short</t>
+    <t xml:space="preserve">region_ar6_6_short</t>
   </si>
   <si>
     <t xml:space="preserve">AFG</t>
